--- a/orariuni.xlsx
+++ b/orariuni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolez/Documents/GitHub/TurniPedro_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB341DD-9123-0F46-B6B2-2A500D01CC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B251B-3A47-D849-9F21-588730DC957D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="16080" xr2:uid="{6BEE31F0-D421-4445-B772-CC7B210CA71C}"/>
   </bookViews>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
-    <t>Chimica e lab</t>
-  </si>
-  <si>
-    <t>Geologia e lab</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>17.30-18.30</t>
   </si>
   <si>
-    <t xml:space="preserve">Matematica 1 </t>
-  </si>
-  <si>
     <t>lun</t>
   </si>
   <si>
@@ -94,6 +85,15 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Chimica</t>
+  </si>
+  <si>
+    <t>Geologia</t>
+  </si>
+  <si>
+    <t>Mate</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,222 +460,222 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
